--- a/data/pca/factorExposure/factorExposure_2010-05-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-05-24.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01686857212540601</v>
+        <v>-0.01722112653894485</v>
       </c>
       <c r="C2">
-        <v>-0.001227405345099265</v>
+        <v>0.0009926258040087463</v>
       </c>
       <c r="D2">
-        <v>-0.01759148973220232</v>
+        <v>0.009267420195254308</v>
       </c>
       <c r="E2">
-        <v>0.01427525196368983</v>
+        <v>-0.0002613286508770953</v>
       </c>
       <c r="F2">
-        <v>-0.01487495894555571</v>
+        <v>-0.01275581929845862</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1218631189809714</v>
+        <v>-0.09468690968229677</v>
       </c>
       <c r="C4">
-        <v>-0.1033678376248678</v>
+        <v>0.01744743824799256</v>
       </c>
       <c r="D4">
-        <v>0.01763640739318077</v>
+        <v>0.08205508726615374</v>
       </c>
       <c r="E4">
-        <v>-0.02013837409216228</v>
+        <v>0.02968857258406097</v>
       </c>
       <c r="F4">
-        <v>-0.07839643432468175</v>
+        <v>0.03461171147955925</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1327586052851484</v>
+        <v>-0.1523634531256758</v>
       </c>
       <c r="C6">
-        <v>-0.06320803174645553</v>
+        <v>0.02460673128757716</v>
       </c>
       <c r="D6">
-        <v>-0.002073394874393536</v>
+        <v>-0.02305892624201721</v>
       </c>
       <c r="E6">
-        <v>-0.1092336811822746</v>
+        <v>0.008819905521633645</v>
       </c>
       <c r="F6">
-        <v>-0.06067321724686592</v>
+        <v>0.04163591211841591</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06481792209125158</v>
+        <v>-0.06127203833812504</v>
       </c>
       <c r="C7">
-        <v>-0.07035491278676696</v>
+        <v>-0.00015032140082325</v>
       </c>
       <c r="D7">
-        <v>-0.007578989443998533</v>
+        <v>0.05183873454688962</v>
       </c>
       <c r="E7">
-        <v>0.04343140919933963</v>
+        <v>0.01638620691876318</v>
       </c>
       <c r="F7">
-        <v>-0.0002562863467693647</v>
+        <v>0.05466511943336527</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04329934143311918</v>
+        <v>-0.05913192769262914</v>
       </c>
       <c r="C8">
-        <v>-0.03254274776619221</v>
+        <v>-0.01282964858039429</v>
       </c>
       <c r="D8">
-        <v>9.744905336680091e-05</v>
+        <v>0.0300994003259922</v>
       </c>
       <c r="E8">
-        <v>-0.07803640995428392</v>
+        <v>0.01383513790266029</v>
       </c>
       <c r="F8">
-        <v>-0.08121521130290951</v>
+        <v>-0.02820782533596222</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08596133226924822</v>
+        <v>-0.07228593288556626</v>
       </c>
       <c r="C9">
-        <v>-0.07568024265336649</v>
+        <v>0.01364641746839962</v>
       </c>
       <c r="D9">
-        <v>0.02821779287332933</v>
+        <v>0.0818827679485165</v>
       </c>
       <c r="E9">
-        <v>-0.0191281293041954</v>
+        <v>0.02534410704059312</v>
       </c>
       <c r="F9">
-        <v>-0.05758254322969007</v>
+        <v>0.05633259726715394</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1362722356247905</v>
+        <v>-0.0933153081926658</v>
       </c>
       <c r="C10">
-        <v>0.1624791713002492</v>
+        <v>0.01567345036153523</v>
       </c>
       <c r="D10">
-        <v>-0.02145601400832563</v>
+        <v>-0.1709616234207488</v>
       </c>
       <c r="E10">
-        <v>-0.00806773443059219</v>
+        <v>-0.03630180601372018</v>
       </c>
       <c r="F10">
-        <v>-0.03191099666414366</v>
+        <v>-0.05196115223989385</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.07022108120573008</v>
+        <v>-0.08837673092880705</v>
       </c>
       <c r="C11">
-        <v>-0.0681067307685108</v>
+        <v>0.01291310723393072</v>
       </c>
       <c r="D11">
-        <v>0.03489447861231729</v>
+        <v>0.1128527477990904</v>
       </c>
       <c r="E11">
-        <v>-0.006423025315117122</v>
+        <v>0.0463599595194786</v>
       </c>
       <c r="F11">
-        <v>-0.04313916453187448</v>
+        <v>0.02400495931524926</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06867543680117093</v>
+        <v>-0.09350699444401088</v>
       </c>
       <c r="C12">
-        <v>-0.06876805349691453</v>
+        <v>0.01086130453201971</v>
       </c>
       <c r="D12">
-        <v>0.05120539720571703</v>
+        <v>0.1203873004096336</v>
       </c>
       <c r="E12">
-        <v>-0.008333127621519623</v>
+        <v>0.0456714774477474</v>
       </c>
       <c r="F12">
-        <v>-0.002662406696072027</v>
+        <v>0.02542323979343707</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03817911615759021</v>
+        <v>-0.04430993256272592</v>
       </c>
       <c r="C13">
-        <v>-0.0426052044994169</v>
+        <v>0.004562723042764629</v>
       </c>
       <c r="D13">
-        <v>-0.01771780175531533</v>
+        <v>0.04552104795744173</v>
       </c>
       <c r="E13">
-        <v>0.01294815980900327</v>
+        <v>-0.01227928973750594</v>
       </c>
       <c r="F13">
-        <v>-0.0052800413115866</v>
+        <v>0.01713290946186321</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0284198361391615</v>
+        <v>-0.02152390495099736</v>
       </c>
       <c r="C14">
-        <v>-0.02261795334562745</v>
+        <v>0.01477906009866943</v>
       </c>
       <c r="D14">
-        <v>0.02383439674311321</v>
+        <v>0.03209675059508188</v>
       </c>
       <c r="E14">
-        <v>-0.02610767340436387</v>
+        <v>0.01851394932923658</v>
       </c>
       <c r="F14">
-        <v>-0.01037272479846122</v>
+        <v>0.0199362977940357</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01767822923605714</v>
+        <v>-0.03223955402678374</v>
       </c>
       <c r="C15">
-        <v>-0.02394650402674416</v>
+        <v>0.005656257239731825</v>
       </c>
       <c r="D15">
-        <v>-0.06396017376606958</v>
+        <v>0.04492752928285267</v>
       </c>
       <c r="E15">
-        <v>0.01682858383005771</v>
+        <v>0.009096972739274855</v>
       </c>
       <c r="F15">
-        <v>-0.009427657138798756</v>
+        <v>0.03176104954064696</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07453205165264856</v>
+        <v>-0.07509616347391945</v>
       </c>
       <c r="C16">
-        <v>-0.068189937620512</v>
+        <v>0.004529513574619813</v>
       </c>
       <c r="D16">
-        <v>0.04426146549921472</v>
+        <v>0.1150489581836228</v>
       </c>
       <c r="E16">
-        <v>-0.007030123805331859</v>
+        <v>0.06132069919810694</v>
       </c>
       <c r="F16">
-        <v>-0.02421484325920902</v>
+        <v>0.03310428061812753</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0212518219681793</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003771029384930457</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02138545252932209</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01149055529462075</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02399955834394514</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04337926733797532</v>
+        <v>-0.06167354760498029</v>
       </c>
       <c r="C20">
-        <v>-0.02975064766458262</v>
+        <v>0.002246251945114258</v>
       </c>
       <c r="D20">
-        <v>-0.02900248654018756</v>
+        <v>0.07177752128453112</v>
       </c>
       <c r="E20">
-        <v>-0.02247575860845545</v>
+        <v>0.05384965087137917</v>
       </c>
       <c r="F20">
-        <v>-0.004994762372988265</v>
+        <v>0.02881284171072421</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02272587481883194</v>
+        <v>-0.03875600244027304</v>
       </c>
       <c r="C21">
-        <v>-0.02075485255772053</v>
+        <v>0.007733395813626061</v>
       </c>
       <c r="D21">
-        <v>0.01577931860159036</v>
+        <v>0.03524121412045098</v>
       </c>
       <c r="E21">
-        <v>-0.01816254362732632</v>
+        <v>-0.009262574407505457</v>
       </c>
       <c r="F21">
-        <v>-0.01243301843672458</v>
+        <v>-0.01963578017549939</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05912874620177475</v>
+        <v>-0.04297898471371747</v>
       </c>
       <c r="C22">
-        <v>-0.03128870543132473</v>
+        <v>0.0003421819942801745</v>
       </c>
       <c r="D22">
-        <v>-0.6350678602020007</v>
+        <v>0.001824316199461519</v>
       </c>
       <c r="E22">
-        <v>0.01104591117988496</v>
+        <v>0.02992902608427401</v>
       </c>
       <c r="F22">
-        <v>0.1756306998564964</v>
+        <v>-0.01377398561309599</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05971575380786725</v>
+        <v>-0.04302221662790558</v>
       </c>
       <c r="C23">
-        <v>-0.03307104391909522</v>
+        <v>0.0003646105166961648</v>
       </c>
       <c r="D23">
-        <v>-0.6373810769223738</v>
+        <v>0.001993589859017832</v>
       </c>
       <c r="E23">
-        <v>0.008766352415739637</v>
+        <v>0.03028728595518851</v>
       </c>
       <c r="F23">
-        <v>0.1734260098262479</v>
+        <v>-0.01320760357242395</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07423174894088379</v>
+        <v>-0.08159688066554334</v>
       </c>
       <c r="C24">
-        <v>-0.06775504483539346</v>
+        <v>0.004734824059391046</v>
       </c>
       <c r="D24">
-        <v>0.03834220142073853</v>
+        <v>0.1162379996696237</v>
       </c>
       <c r="E24">
-        <v>0.02510051693162751</v>
+        <v>0.04933101488689234</v>
       </c>
       <c r="F24">
-        <v>-0.01103666464715192</v>
+        <v>0.02493144205985826</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07812793918322873</v>
+        <v>-0.08595183110999045</v>
       </c>
       <c r="C25">
-        <v>-0.06133919748670195</v>
+        <v>0.006755123282197949</v>
       </c>
       <c r="D25">
-        <v>0.05479595140578249</v>
+        <v>0.1036750204095472</v>
       </c>
       <c r="E25">
-        <v>0.002793132393067248</v>
+        <v>0.03200749970424526</v>
       </c>
       <c r="F25">
-        <v>-0.03131243534836342</v>
+        <v>0.03315180046457898</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.0382101996602881</v>
+        <v>-0.05584309128050952</v>
       </c>
       <c r="C26">
-        <v>0.001076238452968877</v>
+        <v>0.01559919001378098</v>
       </c>
       <c r="D26">
-        <v>-0.01331563206439522</v>
+        <v>0.03365588481891235</v>
       </c>
       <c r="E26">
-        <v>-0.05637221485105525</v>
+        <v>0.02575077929309042</v>
       </c>
       <c r="F26">
-        <v>0.02376503409472187</v>
+        <v>-0.007503537136607845</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1591517303252735</v>
+        <v>-0.1395226453450527</v>
       </c>
       <c r="C28">
-        <v>0.2738587276304735</v>
+        <v>0.01336795965146192</v>
       </c>
       <c r="D28">
-        <v>0.00290231074473174</v>
+        <v>-0.2702133927855667</v>
       </c>
       <c r="E28">
-        <v>-0.03423949375026308</v>
+        <v>-0.06686244162555129</v>
       </c>
       <c r="F28">
-        <v>-0.005792255851301769</v>
+        <v>0.03468254992963198</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03012180297255696</v>
+        <v>-0.02707159553734842</v>
       </c>
       <c r="C29">
-        <v>-0.02567546898935467</v>
+        <v>0.00915045995950323</v>
       </c>
       <c r="D29">
-        <v>0.02625523621051619</v>
+        <v>0.03072483888036722</v>
       </c>
       <c r="E29">
-        <v>-0.01522040406541328</v>
+        <v>0.01135162133425952</v>
       </c>
       <c r="F29">
-        <v>0.005071161871742834</v>
+        <v>-0.01059463021622389</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09402703050735683</v>
+        <v>-0.06452968193209715</v>
       </c>
       <c r="C30">
-        <v>-0.0637381923446152</v>
+        <v>0.00645551662684477</v>
       </c>
       <c r="D30">
-        <v>0.03023399746797654</v>
+        <v>0.080020817722407</v>
       </c>
       <c r="E30">
-        <v>-0.1794816239821805</v>
+        <v>0.02341723195319226</v>
       </c>
       <c r="F30">
-        <v>0.1466414987485877</v>
+        <v>0.1155820933156638</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03042677410799768</v>
+        <v>-0.04874037627919389</v>
       </c>
       <c r="C31">
-        <v>-0.05866155064180247</v>
+        <v>0.01519479475834124</v>
       </c>
       <c r="D31">
-        <v>0.003682097490724144</v>
+        <v>0.02896063800044113</v>
       </c>
       <c r="E31">
-        <v>0.009897762446390566</v>
+        <v>0.02739154335385235</v>
       </c>
       <c r="F31">
-        <v>-0.02275010592298419</v>
+        <v>-0.002594263530834616</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05202751156987422</v>
+        <v>-0.04893219141140735</v>
       </c>
       <c r="C32">
-        <v>-0.01925361369617769</v>
+        <v>0.000469487785320858</v>
       </c>
       <c r="D32">
-        <v>0.05327990680910004</v>
+        <v>0.02984880442008871</v>
       </c>
       <c r="E32">
-        <v>-0.06722257477409216</v>
+        <v>0.02927367838753294</v>
       </c>
       <c r="F32">
-        <v>-0.07569874335201812</v>
+        <v>0.0007278634984415457</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08354953836032679</v>
+        <v>-0.09063824392755576</v>
       </c>
       <c r="C33">
-        <v>-0.0573918279082914</v>
+        <v>0.009846365501591183</v>
       </c>
       <c r="D33">
-        <v>0.03517929073994288</v>
+        <v>0.09168140294481905</v>
       </c>
       <c r="E33">
-        <v>-0.002305614514448247</v>
+        <v>0.04578816276504437</v>
       </c>
       <c r="F33">
-        <v>0.01194195290370816</v>
+        <v>0.03989300677738915</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0664514476021142</v>
+        <v>-0.06915823324183762</v>
       </c>
       <c r="C34">
-        <v>-0.05639476313787577</v>
+        <v>0.01285450927617846</v>
       </c>
       <c r="D34">
-        <v>0.042064342201529</v>
+        <v>0.09682717626911622</v>
       </c>
       <c r="E34">
-        <v>-0.007992751501190465</v>
+        <v>0.03403197921174607</v>
       </c>
       <c r="F34">
-        <v>-0.03162877961715383</v>
+        <v>0.04751724085375622</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01342038129451429</v>
+        <v>-0.02437061042381256</v>
       </c>
       <c r="C35">
-        <v>-0.008473358365749176</v>
+        <v>0.002686506392135715</v>
       </c>
       <c r="D35">
-        <v>0.0005689497364908386</v>
+        <v>0.01029325441545974</v>
       </c>
       <c r="E35">
-        <v>-0.01511737612136427</v>
+        <v>0.01110260702023662</v>
       </c>
       <c r="F35">
-        <v>-0.01030708826625595</v>
+        <v>0.01140440519325059</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02242518512992347</v>
+        <v>-0.02516142081661508</v>
       </c>
       <c r="C36">
-        <v>-0.01183950490791475</v>
+        <v>0.007261580058047754</v>
       </c>
       <c r="D36">
-        <v>-0.01005572200932507</v>
+        <v>0.03752817763950553</v>
       </c>
       <c r="E36">
-        <v>-0.02179127460583145</v>
+        <v>0.01691225984331177</v>
       </c>
       <c r="F36">
-        <v>-0.003219701011039987</v>
+        <v>0.007692546466189766</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01745969565071499</v>
+        <v>-0.002516954509716297</v>
       </c>
       <c r="C38">
-        <v>-0.03300968614863664</v>
+        <v>0.0004388443634319685</v>
       </c>
       <c r="D38">
-        <v>-0.02148528353115133</v>
+        <v>0.002051727506884283</v>
       </c>
       <c r="E38">
-        <v>0.02466952108367824</v>
+        <v>0.002848708599951436</v>
       </c>
       <c r="F38">
-        <v>0.09469053713349698</v>
+        <v>-0.00205870546219954</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1058353047733789</v>
+        <v>-0.1104060500954257</v>
       </c>
       <c r="C39">
-        <v>-0.09209981933549036</v>
+        <v>0.01842585214442882</v>
       </c>
       <c r="D39">
-        <v>0.1428331263839295</v>
+        <v>0.1485341497644896</v>
       </c>
       <c r="E39">
-        <v>-0.07306906861376299</v>
+        <v>0.05706177149915401</v>
       </c>
       <c r="F39">
-        <v>0.04299321423662443</v>
+        <v>0.03447223779798278</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0251964214841066</v>
+        <v>-0.03757548554971372</v>
       </c>
       <c r="C40">
-        <v>-0.06494702275347039</v>
+        <v>0.007611027891490259</v>
       </c>
       <c r="D40">
-        <v>-0.02392072293296462</v>
+        <v>0.0303184744166226</v>
       </c>
       <c r="E40">
-        <v>0.04577384597675308</v>
+        <v>0.004209718997372139</v>
       </c>
       <c r="F40">
-        <v>-0.002595443003515732</v>
+        <v>-0.02037026084117875</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03783869210022706</v>
+        <v>-0.02674536117135171</v>
       </c>
       <c r="C41">
-        <v>-0.02734274198181627</v>
+        <v>0.006974736070275265</v>
       </c>
       <c r="D41">
-        <v>0.01957455125840704</v>
+        <v>0.01082756626184367</v>
       </c>
       <c r="E41">
-        <v>-0.01701259009154795</v>
+        <v>0.01230987435919681</v>
       </c>
       <c r="F41">
-        <v>0.002526004065689215</v>
+        <v>-0.01127670910820331</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04522436826195868</v>
+        <v>-0.04240273500434315</v>
       </c>
       <c r="C43">
-        <v>-0.03498459452371061</v>
+        <v>0.007190248694834461</v>
       </c>
       <c r="D43">
-        <v>-0.007318419545222016</v>
+        <v>0.02108211750433288</v>
       </c>
       <c r="E43">
-        <v>-0.02549434548466837</v>
+        <v>0.02600619676429818</v>
       </c>
       <c r="F43">
-        <v>0.01414895530951626</v>
+        <v>-0.01210352172110894</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1008207491473125</v>
+        <v>-0.07310609843792693</v>
       </c>
       <c r="C44">
-        <v>-0.1088941051494297</v>
+        <v>0.02254942111023937</v>
       </c>
       <c r="D44">
-        <v>-0.07472710031952162</v>
+        <v>0.09881936380308852</v>
       </c>
       <c r="E44">
-        <v>0.03066577343999788</v>
+        <v>0.06786821658383181</v>
       </c>
       <c r="F44">
-        <v>0.03516173806606727</v>
+        <v>0.173653552308905</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02620627118042183</v>
+        <v>-0.02313041524780042</v>
       </c>
       <c r="C46">
-        <v>-0.00429161904553029</v>
+        <v>0.004110256052301254</v>
       </c>
       <c r="D46">
-        <v>-0.02558117360239032</v>
+        <v>0.01147925764005104</v>
       </c>
       <c r="E46">
-        <v>0.01403386091832994</v>
+        <v>0.02362481634964772</v>
       </c>
       <c r="F46">
-        <v>0.04839519861895829</v>
+        <v>-0.001554708186724486</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04513993581021578</v>
+        <v>-0.05291464207588535</v>
       </c>
       <c r="C47">
-        <v>-0.03595487830978834</v>
+        <v>0.003445474331349871</v>
       </c>
       <c r="D47">
-        <v>-0.0001880683766031429</v>
+        <v>0.01280284594235357</v>
       </c>
       <c r="E47">
-        <v>-0.004336557801200638</v>
+        <v>0.02207799994230993</v>
       </c>
       <c r="F47">
-        <v>-0.006503094490889096</v>
+        <v>-0.04667689491107889</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04289710001619707</v>
+        <v>-0.04784112288305501</v>
       </c>
       <c r="C48">
-        <v>-0.01437764366669157</v>
+        <v>0.003296923471724701</v>
       </c>
       <c r="D48">
-        <v>0.01551144927827471</v>
+        <v>0.04599063839878173</v>
       </c>
       <c r="E48">
-        <v>0.003582136649036373</v>
+        <v>-0.005748168213806109</v>
       </c>
       <c r="F48">
-        <v>-0.02327926770478306</v>
+        <v>0.01348307730320132</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2227860862533206</v>
+        <v>-0.2032301981571888</v>
       </c>
       <c r="C49">
-        <v>-0.01406325559217702</v>
+        <v>0.01712335615158014</v>
       </c>
       <c r="D49">
-        <v>0.03840774747952121</v>
+        <v>-0.009979603965905637</v>
       </c>
       <c r="E49">
-        <v>0.1933231801537665</v>
+        <v>0.03741413276185154</v>
       </c>
       <c r="F49">
-        <v>0.1154300644738438</v>
+        <v>0.03428056681635062</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03880710049389658</v>
+        <v>-0.04861246298626661</v>
       </c>
       <c r="C50">
-        <v>-0.03073129111368483</v>
+        <v>0.0112327812348566</v>
       </c>
       <c r="D50">
-        <v>0.01999638224664566</v>
+        <v>0.02569006469237263</v>
       </c>
       <c r="E50">
-        <v>-0.03055179228510105</v>
+        <v>0.02864860659712832</v>
       </c>
       <c r="F50">
-        <v>0.008344284835726756</v>
+        <v>0.00772174394369365</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02554995578741377</v>
+        <v>-0.003390611003885311</v>
       </c>
       <c r="C51">
-        <v>0.006304974180605201</v>
+        <v>0.0008206492570357723</v>
       </c>
       <c r="D51">
-        <v>-0.004099394948378906</v>
+        <v>-0.002158952266915262</v>
       </c>
       <c r="E51">
-        <v>0.02807640872060841</v>
+        <v>0.0008948372867556916</v>
       </c>
       <c r="F51">
-        <v>-0.02105330769938759</v>
+        <v>0.005162522837876796</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.06863926706599023</v>
+        <v>-0.1438659506860639</v>
       </c>
       <c r="C52">
-        <v>-0.06712143943956017</v>
+        <v>0.01311779278912534</v>
       </c>
       <c r="D52">
-        <v>0.02344609594619199</v>
+        <v>0.05047305471620429</v>
       </c>
       <c r="E52">
-        <v>-0.04773151185117783</v>
+        <v>0.02005510996588365</v>
       </c>
       <c r="F52">
-        <v>0.02308559688888449</v>
+        <v>0.0360569312083722</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1575830469074879</v>
+        <v>-0.1732551146686618</v>
       </c>
       <c r="C53">
-        <v>-0.07615728757429067</v>
+        <v>0.01591454051827619</v>
       </c>
       <c r="D53">
-        <v>-0.01309236177417231</v>
+        <v>0.01424073800594934</v>
       </c>
       <c r="E53">
-        <v>-0.03066270033367013</v>
+        <v>0.0361210396845275</v>
       </c>
       <c r="F53">
-        <v>0.05724258803537935</v>
+        <v>0.06876955312145042</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05683647538889383</v>
+        <v>-0.02276263248776994</v>
       </c>
       <c r="C54">
-        <v>-0.06805737022786257</v>
+        <v>0.01274352809798123</v>
       </c>
       <c r="D54">
-        <v>0.002596785568168044</v>
+        <v>0.03303998485130908</v>
       </c>
       <c r="E54">
-        <v>-0.03430151164285333</v>
+        <v>0.01487464808451228</v>
       </c>
       <c r="F54">
-        <v>-0.06427081464409287</v>
+        <v>-0.003706742595674023</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08064668181132795</v>
+        <v>-0.1142271252580635</v>
       </c>
       <c r="C55">
-        <v>-0.05172179592658586</v>
+        <v>0.01462479379037965</v>
       </c>
       <c r="D55">
-        <v>0.03560205679304777</v>
+        <v>0.01307098853942867</v>
       </c>
       <c r="E55">
-        <v>0.01352099173827552</v>
+        <v>0.03032347332148743</v>
       </c>
       <c r="F55">
-        <v>0.01334739643675128</v>
+        <v>0.05049513512481205</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1427225924733804</v>
+        <v>-0.1773056446851209</v>
       </c>
       <c r="C56">
-        <v>-0.0879128953766327</v>
+        <v>0.01337793656348898</v>
       </c>
       <c r="D56">
-        <v>0.03028535779467988</v>
+        <v>0.008253580712953207</v>
       </c>
       <c r="E56">
-        <v>0.04271555741482629</v>
+        <v>0.03977171175902138</v>
       </c>
       <c r="F56">
-        <v>0.06277145864240617</v>
+        <v>0.04051810766388465</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.05216361164570359</v>
+        <v>-0.04718167497816442</v>
       </c>
       <c r="C58">
-        <v>-0.03948653147176686</v>
+        <v>0.003074818714326565</v>
       </c>
       <c r="D58">
-        <v>-0.03717650330612924</v>
+        <v>0.06377565227886949</v>
       </c>
       <c r="E58">
-        <v>0.00619229432122357</v>
+        <v>0.02153841680586712</v>
       </c>
       <c r="F58">
-        <v>0.03786631243455361</v>
+        <v>-0.05007752098303827</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2198919332934437</v>
+        <v>-0.1707275471992611</v>
       </c>
       <c r="C59">
-        <v>0.2290391797490201</v>
+        <v>0.01505439418885992</v>
       </c>
       <c r="D59">
-        <v>0.03998102283206282</v>
+        <v>-0.2288913328633103</v>
       </c>
       <c r="E59">
-        <v>0.01074874557925876</v>
+        <v>-0.04828303667909657</v>
       </c>
       <c r="F59">
-        <v>-0.087338867909994</v>
+        <v>-0.0339674617903911</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2276754797748149</v>
+        <v>-0.237835594842889</v>
       </c>
       <c r="C60">
-        <v>-0.137414604156587</v>
+        <v>-0.004276916111388765</v>
       </c>
       <c r="D60">
-        <v>0.07964934689421511</v>
+        <v>0.05005587880691827</v>
       </c>
       <c r="E60">
-        <v>0.1143158474810734</v>
+        <v>0.008564135986607081</v>
       </c>
       <c r="F60">
-        <v>0.08888836519361508</v>
+        <v>-0.03664736911376318</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1095644554983934</v>
+        <v>-0.0852986506433118</v>
       </c>
       <c r="C61">
-        <v>-0.07349362777513822</v>
+        <v>0.01445735013889334</v>
       </c>
       <c r="D61">
-        <v>0.08356949664479398</v>
+        <v>0.1094337329192045</v>
       </c>
       <c r="E61">
-        <v>-0.04566845382638878</v>
+        <v>0.03931899105191573</v>
       </c>
       <c r="F61">
-        <v>0.009953541786516095</v>
+        <v>0.01893056158186153</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1375993132833911</v>
+        <v>-0.1695907628085259</v>
       </c>
       <c r="C62">
-        <v>-0.07560098705899423</v>
+        <v>0.01728043206193004</v>
       </c>
       <c r="D62">
-        <v>0.00151719253202021</v>
+        <v>0.01252404417775762</v>
       </c>
       <c r="E62">
-        <v>0.04545780631307638</v>
+        <v>0.03713080969089614</v>
       </c>
       <c r="F62">
-        <v>0.07753285215092241</v>
+        <v>0.02059117899887149</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04615857526286168</v>
+        <v>-0.04272260742800562</v>
       </c>
       <c r="C63">
-        <v>-0.0289878525751989</v>
+        <v>0.00399573184053139</v>
       </c>
       <c r="D63">
-        <v>0.008921033639526182</v>
+        <v>0.04885788422784796</v>
       </c>
       <c r="E63">
-        <v>-0.04431353288875186</v>
+        <v>0.01975916356619499</v>
       </c>
       <c r="F63">
-        <v>-0.02073737276292563</v>
+        <v>0.009466498202609292</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09455368102804132</v>
+        <v>-0.1122165059441219</v>
       </c>
       <c r="C64">
-        <v>-0.05926833871134149</v>
+        <v>0.0118869156119867</v>
       </c>
       <c r="D64">
-        <v>0.008807083135898581</v>
+        <v>0.04146069762945266</v>
       </c>
       <c r="E64">
-        <v>0.0009436344875062735</v>
+        <v>0.02039920695495705</v>
       </c>
       <c r="F64">
-        <v>0.05201579726251972</v>
+        <v>0.01824039491636923</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1187586402041028</v>
+        <v>-0.1437385931242368</v>
       </c>
       <c r="C65">
-        <v>-0.04797691378811648</v>
+        <v>0.03120801221403491</v>
       </c>
       <c r="D65">
-        <v>0.02006265988352898</v>
+        <v>-0.04522512528765898</v>
       </c>
       <c r="E65">
-        <v>-0.1183782729587244</v>
+        <v>6.421528310084807e-05</v>
       </c>
       <c r="F65">
-        <v>-0.009011286271063443</v>
+        <v>0.04446425307152845</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.119454683017806</v>
+        <v>-0.1320280509393431</v>
       </c>
       <c r="C66">
-        <v>-0.112921864602776</v>
+        <v>0.01593100877488165</v>
       </c>
       <c r="D66">
-        <v>0.1352469562324567</v>
+        <v>0.1360399306742383</v>
       </c>
       <c r="E66">
-        <v>-0.0631228133100238</v>
+        <v>0.06391663739044254</v>
       </c>
       <c r="F66">
-        <v>0.0924390036646711</v>
+        <v>0.03961522343493405</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06702821896598851</v>
+        <v>-0.06397168506021902</v>
       </c>
       <c r="C67">
-        <v>-0.03213266049825882</v>
+        <v>0.00383724304166417</v>
       </c>
       <c r="D67">
-        <v>-0.03315506235314061</v>
+        <v>0.0549257266892313</v>
       </c>
       <c r="E67">
-        <v>0.01219614847692775</v>
+        <v>0.02014835172352468</v>
       </c>
       <c r="F67">
-        <v>0.07242889142097046</v>
+        <v>-0.04225682685521009</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1367599179841596</v>
+        <v>-0.1139024048777812</v>
       </c>
       <c r="C68">
-        <v>0.2442878183745901</v>
+        <v>0.02444514435141845</v>
       </c>
       <c r="D68">
-        <v>0.01337209598334653</v>
+        <v>-0.2670494008022484</v>
       </c>
       <c r="E68">
-        <v>-0.0549093472114153</v>
+        <v>-0.08516002889685781</v>
       </c>
       <c r="F68">
-        <v>-0.0258113254738525</v>
+        <v>0.04186774244296383</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04494308412696744</v>
+        <v>-0.04032007759581248</v>
       </c>
       <c r="C69">
-        <v>-0.002548252187527007</v>
+        <v>0.001229534162006642</v>
       </c>
       <c r="D69">
-        <v>-0.003290429547929324</v>
+        <v>0.009360368687744999</v>
       </c>
       <c r="E69">
-        <v>-0.05046311963947705</v>
+        <v>0.02459454706347905</v>
       </c>
       <c r="F69">
-        <v>0.01090070073279731</v>
+        <v>-0.01466974740950397</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04658429495081725</v>
+        <v>-0.06470998253075148</v>
       </c>
       <c r="C70">
-        <v>-0.01930357987994368</v>
+        <v>-0.02746259306998175</v>
       </c>
       <c r="D70">
-        <v>0.03733439505323722</v>
+        <v>0.02568485490394934</v>
       </c>
       <c r="E70">
-        <v>-0.05669898221310724</v>
+        <v>-0.0478853372515908</v>
       </c>
       <c r="F70">
-        <v>0.02134661814022424</v>
+        <v>-0.3115785270663684</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1547132553938364</v>
+        <v>-0.1326246154892142</v>
       </c>
       <c r="C71">
-        <v>0.2687256677856096</v>
+        <v>0.02856694840080092</v>
       </c>
       <c r="D71">
-        <v>0.009361755251796425</v>
+        <v>-0.2830477551502068</v>
       </c>
       <c r="E71">
-        <v>-0.06408010328202557</v>
+        <v>-0.09299326194785208</v>
       </c>
       <c r="F71">
-        <v>0.008469892560367384</v>
+        <v>0.04436264218126442</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1382306024300833</v>
+        <v>-0.1382630126413486</v>
       </c>
       <c r="C72">
-        <v>-0.03370781301619366</v>
+        <v>0.02428813313938224</v>
       </c>
       <c r="D72">
-        <v>0.004121318738544363</v>
+        <v>0.004615824116335403</v>
       </c>
       <c r="E72">
-        <v>-0.02040380536706844</v>
+        <v>0.04300803807621966</v>
       </c>
       <c r="F72">
-        <v>0.04140788679383474</v>
+        <v>0.02330771287487817</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2166947247329239</v>
+        <v>-0.2061541933418976</v>
       </c>
       <c r="C73">
-        <v>-0.04885191803840495</v>
+        <v>0.01156431184247147</v>
       </c>
       <c r="D73">
-        <v>0.1241341616874173</v>
+        <v>0.0156131264995382</v>
       </c>
       <c r="E73">
-        <v>0.2509130510834264</v>
+        <v>0.06373389872698368</v>
       </c>
       <c r="F73">
-        <v>0.2352451895039704</v>
+        <v>0.031113530907244</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1037570832983189</v>
+        <v>-0.09398052638324657</v>
       </c>
       <c r="C74">
-        <v>-0.0949225778857854</v>
+        <v>0.01194546628930106</v>
       </c>
       <c r="D74">
-        <v>0.01070233594363775</v>
+        <v>0.02361698927742764</v>
       </c>
       <c r="E74">
-        <v>-0.02032700439886671</v>
+        <v>0.04887738550873906</v>
       </c>
       <c r="F74">
-        <v>0.08756928523345936</v>
+        <v>0.04340605807520781</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09899344930770614</v>
+        <v>-0.1299869584423061</v>
       </c>
       <c r="C75">
-        <v>-0.07317216644547191</v>
+        <v>0.02626756087861835</v>
       </c>
       <c r="D75">
-        <v>0.005547848274732165</v>
+        <v>0.03421680895989</v>
       </c>
       <c r="E75">
-        <v>0.01862052378811644</v>
+        <v>0.05969912691862858</v>
       </c>
       <c r="F75">
-        <v>-0.01181071020698293</v>
+        <v>0.01334635850086666</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.04156492886379996</v>
+        <v>-0.005649151611776764</v>
       </c>
       <c r="C76">
-        <v>-0.02274163861473783</v>
+        <v>0.001275168651555662</v>
       </c>
       <c r="D76">
-        <v>0.004028340123584556</v>
+        <v>-0.0002196713589884302</v>
       </c>
       <c r="E76">
-        <v>0.02661679157105375</v>
+        <v>0.00403079089249279</v>
       </c>
       <c r="F76">
-        <v>-0.001734035272439867</v>
+        <v>0.004290036192957392</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06622874903237365</v>
+        <v>-0.07957854808011899</v>
       </c>
       <c r="C77">
-        <v>-0.03224740606528936</v>
+        <v>0.01049411537497668</v>
       </c>
       <c r="D77">
-        <v>0.03477497403121829</v>
+        <v>0.1087432120937319</v>
       </c>
       <c r="E77">
-        <v>-0.02721328491260311</v>
+        <v>0.03576699918005576</v>
       </c>
       <c r="F77">
-        <v>-0.07496994510004731</v>
+        <v>0.03053854351156205</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.134349214117005</v>
+        <v>-0.1076651502917672</v>
       </c>
       <c r="C78">
-        <v>-0.1308045690454983</v>
+        <v>0.04224249747497514</v>
       </c>
       <c r="D78">
-        <v>-0.1995673625327043</v>
+        <v>0.117887889602838</v>
       </c>
       <c r="E78">
-        <v>0.2146079107453243</v>
+        <v>0.08750144341679708</v>
       </c>
       <c r="F78">
-        <v>-0.8285898053570936</v>
+        <v>0.07131662945799176</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1337355810870994</v>
+        <v>-0.1638650069351115</v>
       </c>
       <c r="C79">
-        <v>-0.09036519817104795</v>
+        <v>0.02027471493357379</v>
       </c>
       <c r="D79">
-        <v>-0.005527105077715683</v>
+        <v>0.02014254466608914</v>
       </c>
       <c r="E79">
-        <v>0.01910904167282259</v>
+        <v>0.04741596681126754</v>
       </c>
       <c r="F79">
-        <v>0.04645966478825017</v>
+        <v>0.0117720842884078</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07242381277260292</v>
+        <v>-0.08045526777177922</v>
       </c>
       <c r="C80">
-        <v>-0.05885695518351008</v>
+        <v>-0.0005116010002128154</v>
       </c>
       <c r="D80">
-        <v>0.07810278929641185</v>
+        <v>0.05635497347947176</v>
       </c>
       <c r="E80">
-        <v>-0.08813504332939882</v>
+        <v>0.03308810906323276</v>
       </c>
       <c r="F80">
-        <v>-0.05860477621675247</v>
+        <v>-0.01717569326020553</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1315825235018285</v>
+        <v>-0.1233640329964994</v>
       </c>
       <c r="C81">
-        <v>-0.09149806221493532</v>
+        <v>0.03024751464781957</v>
       </c>
       <c r="D81">
-        <v>-0.001392849283884099</v>
+        <v>0.01993708829057699</v>
       </c>
       <c r="E81">
-        <v>0.00641732528758585</v>
+        <v>0.05974182505229009</v>
       </c>
       <c r="F81">
-        <v>0.01287190025070992</v>
+        <v>0.002632530767942557</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1345813069188292</v>
+        <v>-0.1630005809343066</v>
       </c>
       <c r="C82">
-        <v>-0.07443685978461172</v>
+        <v>0.02074177758700031</v>
       </c>
       <c r="D82">
-        <v>0.01498109672742863</v>
+        <v>0.01718086901483276</v>
       </c>
       <c r="E82">
-        <v>-0.03932936147745247</v>
+        <v>0.03422792889254186</v>
       </c>
       <c r="F82">
-        <v>0.05776594969866067</v>
+        <v>0.06170827854099011</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.09040185331292039</v>
+        <v>-0.06532517122105198</v>
       </c>
       <c r="C83">
-        <v>-0.1591018158689612</v>
+        <v>0.003894349681947348</v>
       </c>
       <c r="D83">
-        <v>0.01603511543188133</v>
+        <v>0.04928832559670429</v>
       </c>
       <c r="E83">
-        <v>-0.0777118835235323</v>
+        <v>0.006082299130048431</v>
       </c>
       <c r="F83">
-        <v>-0.03321755251530378</v>
+        <v>-0.04245998093388426</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06161011942153731</v>
+        <v>-0.05951966002280495</v>
       </c>
       <c r="C84">
-        <v>0.09973266259677624</v>
+        <v>0.01145582081877559</v>
       </c>
       <c r="D84">
-        <v>0.03977642652436951</v>
+        <v>0.06040583435055898</v>
       </c>
       <c r="E84">
-        <v>0.1139948687625884</v>
+        <v>-0.001449620998691638</v>
       </c>
       <c r="F84">
-        <v>-0.05691065526090724</v>
+        <v>0.01230184433841142</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1184599193452736</v>
+        <v>-0.1382891449564951</v>
       </c>
       <c r="C85">
-        <v>-0.0586852853164586</v>
+        <v>0.02566961065016119</v>
       </c>
       <c r="D85">
-        <v>0.008023727893975893</v>
+        <v>0.01520753425282457</v>
       </c>
       <c r="E85">
-        <v>0.03632898140629219</v>
+        <v>0.04027736104317453</v>
       </c>
       <c r="F85">
-        <v>0.06542388469937359</v>
+        <v>0.04657429722035149</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09368270786500189</v>
+        <v>-0.09833551138130217</v>
       </c>
       <c r="C86">
-        <v>-0.03299016562481932</v>
+        <v>-0.006723699292298506</v>
       </c>
       <c r="D86">
-        <v>-0.01319971033709107</v>
+        <v>0.02145707229046409</v>
       </c>
       <c r="E86">
-        <v>0.3892157908136104</v>
+        <v>0.1361896151552556</v>
       </c>
       <c r="F86">
-        <v>-0.003058442191430867</v>
+        <v>-0.8478430559168527</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1234126461772388</v>
+        <v>-0.09946852442913483</v>
       </c>
       <c r="C87">
-        <v>-0.1427908318340955</v>
+        <v>0.02532364817224426</v>
       </c>
       <c r="D87">
-        <v>-0.005215611751120013</v>
+        <v>0.07601645734964881</v>
       </c>
       <c r="E87">
-        <v>-0.0175405018560454</v>
+        <v>-0.05145225771590964</v>
       </c>
       <c r="F87">
-        <v>-0.02168229240689634</v>
+        <v>0.08284134992263681</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05662236922939549</v>
+        <v>-0.0623719886196671</v>
       </c>
       <c r="C88">
-        <v>-0.06044626318871719</v>
+        <v>0.003326083836002529</v>
       </c>
       <c r="D88">
-        <v>0.0428992243191123</v>
+        <v>0.05352974484155466</v>
       </c>
       <c r="E88">
-        <v>-0.02491618001766769</v>
+        <v>0.02734794604026188</v>
       </c>
       <c r="F88">
-        <v>0.03173513686681911</v>
+        <v>0.008994133149919406</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.224806622714935</v>
+        <v>-0.1338677396530904</v>
       </c>
       <c r="C89">
-        <v>0.3594968777932786</v>
+        <v>0.006965340096599867</v>
       </c>
       <c r="D89">
-        <v>-0.06146008069134486</v>
+        <v>-0.2634953542250685</v>
       </c>
       <c r="E89">
-        <v>-0.005101443002988193</v>
+        <v>-0.09060158444908656</v>
       </c>
       <c r="F89">
-        <v>-0.04116725621256632</v>
+        <v>0.02687239197488314</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1673983579538636</v>
+        <v>-0.1444478235529397</v>
       </c>
       <c r="C90">
-        <v>0.256091122973084</v>
+        <v>0.02417452624110742</v>
       </c>
       <c r="D90">
-        <v>0.005757886419215596</v>
+        <v>-0.2712580263239167</v>
       </c>
       <c r="E90">
-        <v>-0.02112402936525372</v>
+        <v>-0.1060029333601466</v>
       </c>
       <c r="F90">
-        <v>0.02770204924764287</v>
+        <v>0.02723884208393101</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.08088246073985077</v>
+        <v>-0.1179866027645559</v>
       </c>
       <c r="C91">
-        <v>-0.06910419009278912</v>
+        <v>0.01653549517779726</v>
       </c>
       <c r="D91">
-        <v>0.008914349431450034</v>
+        <v>-0.005179013816444072</v>
       </c>
       <c r="E91">
-        <v>-0.004032413464578539</v>
+        <v>0.05717192423130808</v>
       </c>
       <c r="F91">
-        <v>0.001995191888933367</v>
+        <v>-0.02192127855821552</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1874281838330223</v>
+        <v>-0.1477838552786061</v>
       </c>
       <c r="C92">
-        <v>0.2948621346266483</v>
+        <v>0.01598566618260924</v>
       </c>
       <c r="D92">
-        <v>-0.03268821039534387</v>
+        <v>-0.3021045449718171</v>
       </c>
       <c r="E92">
-        <v>-0.02510103172015313</v>
+        <v>-0.1011982026734259</v>
       </c>
       <c r="F92">
-        <v>-0.05212253257454196</v>
+        <v>0.0223604744741532</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.172817965034175</v>
+        <v>-0.148206487399922</v>
       </c>
       <c r="C93">
-        <v>0.3066278594290608</v>
+        <v>0.0205317064035591</v>
       </c>
       <c r="D93">
-        <v>0.04109977994274285</v>
+        <v>-0.2728172623240837</v>
       </c>
       <c r="E93">
-        <v>-0.04218357952790076</v>
+        <v>-0.07225909459645545</v>
       </c>
       <c r="F93">
-        <v>0.01005842802960337</v>
+        <v>0.02009306104478159</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1232259368584452</v>
+        <v>-0.1333898356568164</v>
       </c>
       <c r="C94">
-        <v>-0.07632569252086654</v>
+        <v>0.02365225011601019</v>
       </c>
       <c r="D94">
-        <v>-0.005149721626226948</v>
+        <v>0.04721254837993089</v>
       </c>
       <c r="E94">
-        <v>0.04210110754997483</v>
+        <v>0.06091281103093656</v>
       </c>
       <c r="F94">
-        <v>0.03685450513147595</v>
+        <v>0.03166677975244753</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.117471545465825</v>
+        <v>-0.1261430285330969</v>
       </c>
       <c r="C95">
-        <v>-0.06076682843279749</v>
+        <v>0.005664666240572802</v>
       </c>
       <c r="D95">
-        <v>-0.0188983765779146</v>
+        <v>0.09114342370208452</v>
       </c>
       <c r="E95">
-        <v>0.103210744517393</v>
+        <v>0.04441732712919422</v>
       </c>
       <c r="F95">
-        <v>-0.03722848233359702</v>
+        <v>-0.01500310051238264</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.002996823622054443</v>
+        <v>-0.09730818904368095</v>
       </c>
       <c r="C96">
-        <v>-0.01016203781865028</v>
+        <v>-0.9890925524274922</v>
       </c>
       <c r="D96">
-        <v>-0.001663484087147347</v>
+        <v>-0.02407615849083083</v>
       </c>
       <c r="E96">
-        <v>-0.001774397157745026</v>
+        <v>0.05921803093693474</v>
       </c>
       <c r="F96">
-        <v>-0.02629200754202408</v>
+        <v>0.04831480969818824</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1344421352961857</v>
+        <v>-0.1873288554497924</v>
       </c>
       <c r="C97">
-        <v>-0.1111237294906246</v>
+        <v>-0.01170247838919529</v>
       </c>
       <c r="D97">
-        <v>-0.1017754204716606</v>
+        <v>-0.009811169222138772</v>
       </c>
       <c r="E97">
-        <v>-0.6977705214316852</v>
+        <v>0.01568525905502652</v>
       </c>
       <c r="F97">
-        <v>-0.1258243957470739</v>
+        <v>-0.1790064682490048</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2311004056305183</v>
+        <v>-0.2055599373729181</v>
       </c>
       <c r="C98">
-        <v>-0.07817895003199726</v>
+        <v>0.006937191156266015</v>
       </c>
       <c r="D98">
-        <v>-0.09077216409446788</v>
+        <v>0.01414687839109166</v>
       </c>
       <c r="E98">
-        <v>0.05171973917911996</v>
+        <v>-0.09249425483477561</v>
       </c>
       <c r="F98">
-        <v>-0.02465579569997841</v>
+        <v>-0.1282588129315755</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06061054868716625</v>
+        <v>-0.0575068523540699</v>
       </c>
       <c r="C99">
-        <v>-0.02379142358572328</v>
+        <v>-0.00337985012656102</v>
       </c>
       <c r="D99">
-        <v>-0.004906294184211789</v>
+        <v>0.0349738612152098</v>
       </c>
       <c r="E99">
-        <v>0.04758946165762157</v>
+        <v>0.02641388735203878</v>
       </c>
       <c r="F99">
-        <v>0.01085049166586931</v>
+        <v>0.004342748623529143</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.0010880705300496</v>
+        <v>-0.124058904664007</v>
       </c>
       <c r="C100">
-        <v>0.009386617343114712</v>
+        <v>-0.04918427794107925</v>
       </c>
       <c r="D100">
-        <v>-0.003826256575656142</v>
+        <v>0.3356747878001641</v>
       </c>
       <c r="E100">
-        <v>-0.1625657141036397</v>
+        <v>-0.9015293623940827</v>
       </c>
       <c r="F100">
-        <v>-0.0215822157454657</v>
+        <v>-0.05722560311804986</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02978090413623178</v>
+        <v>-0.02700836154788948</v>
       </c>
       <c r="C101">
-        <v>-0.02625045406216734</v>
+        <v>0.009153373772029046</v>
       </c>
       <c r="D101">
-        <v>0.02693865381980515</v>
+        <v>0.03046572778963372</v>
       </c>
       <c r="E101">
-        <v>-0.01329986859771143</v>
+        <v>0.01089732289095525</v>
       </c>
       <c r="F101">
-        <v>0.005279487702005316</v>
+        <v>-0.01270090424613693</v>
       </c>
     </row>
     <row r="102" spans="1:6">
